--- a/Quiz-App.xlsx
+++ b/Quiz-App.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/moraish/Documents/Development/WebDev/projects/quiz-app/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31748948-5B43-E444-8860-7F1E22530A60}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2EC6A819-3D5E-824B-8D4C-27FFA9DD5308}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="51200" windowHeight="26540" xr2:uid="{54B66582-35FC-304F-BF4D-273DADE3AC5F}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="29">
   <si>
     <t>Category</t>
   </si>
@@ -120,6 +120,9 @@
   </si>
   <si>
     <t>Foreign Key</t>
+  </si>
+  <si>
+    <t>Can be removed?</t>
   </si>
 </sst>
 </file>
@@ -528,10 +531,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7849168F-9036-9440-ADA4-F05BC2B97089}">
-  <dimension ref="A1:N11"/>
+  <dimension ref="A1:N21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="A22" sqref="A22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -692,6 +695,16 @@
         <v>4</v>
       </c>
     </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A20" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A21" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
